--- a/Generador/nombre.xlsx
+++ b/Generador/nombre.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -444,6 +444,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col customWidth="true" min="1" max="1" width="25.92578125"/>
+    <col customWidth="true" min="2" max="2" width="25.78125"/>
   </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
@@ -452,11 +453,21 @@
           <t>nombre</t>
         </is>
       </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>deudor</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>DANILO ANTONIO MONTIEL ARRIETA</t>
+          <t>Mauricio Camargo Buendia</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>Yeimeth Miranda Villadiego</t>
         </is>
       </c>
     </row>

--- a/Generador/nombre.xlsx
+++ b/Generador/nombre.xlsx
@@ -93,30 +93,30 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFEEECE1"/>
+        <color rgb="FFE7E6E6"/>
       </left>
       <right style="thin">
-        <color rgb="FFEEECE1"/>
+        <color rgb="FFE7E6E6"/>
       </right>
       <top style="thin">
-        <color rgb="FFEEECE1"/>
+        <color rgb="FFE7E6E6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFEEECE1"/>
+        <color rgb="FFE7E6E6"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFEEECE1"/>
+        <color rgb="FFE7E6E6"/>
       </left>
       <right style="thin">
-        <color rgb="FFEEECE1"/>
+        <color rgb="FFE7E6E6"/>
       </right>
       <top style="thin">
-        <color rgb="FFEEECE1"/>
+        <color rgb="FFE7E6E6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFEEECE1"/>
+        <color rgb="FFE7E6E6"/>
       </bottom>
     </border>
   </borders>
@@ -462,12 +462,12 @@
     <row outlineLevel="0" r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>Mauricio Camargo Buendia</t>
+          <t>Jose Mauricio Camargo Buendia</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>Yeimeth Miranda Villadiego</t>
+          <t>Diego Andres Montiel Hernandez</t>
         </is>
       </c>
     </row>

--- a/Generador/nombre.xlsx
+++ b/Generador/nombre.xlsx
@@ -462,12 +462,12 @@
     <row outlineLevel="0" r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>Jose Mauricio Camargo Buendia</t>
+          <t>Sofia Carolina Alvarez Cañavera</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>Diego Andres Montiel Hernandez</t>
+          <t>Lina Macerla Ruiz</t>
         </is>
       </c>
     </row>

--- a/Generador/nombre.xlsx
+++ b/Generador/nombre.xlsx
@@ -462,12 +462,12 @@
     <row outlineLevel="0" r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>Sofia Carolina Alvarez Cañavera</t>
+          <t>Luisa Fernanda Ramirez Polo</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>Lina Macerla Ruiz</t>
+          <t>Beatriz Maria Nisperuza Pitalua</t>
         </is>
       </c>
     </row>

--- a/Generador/nombre.xlsx
+++ b/Generador/nombre.xlsx
@@ -462,12 +462,12 @@
     <row outlineLevel="0" r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>Luisa Fernanda Ramirez Polo</t>
+          <t>Mauricio Camargo Buendia</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>Beatriz Maria Nisperuza Pitalua</t>
+          <t>Fulano de tal</t>
         </is>
       </c>
     </row>
